--- a/Code/Results/Cases/Case_0_210/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_210/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9845417746292907</v>
+        <v>1.017946612101155</v>
       </c>
       <c r="D2">
-        <v>0.9930817521524764</v>
+        <v>1.020591546546963</v>
       </c>
       <c r="E2">
-        <v>0.9931667318207031</v>
+        <v>1.019281350786939</v>
       </c>
       <c r="F2">
-        <v>0.9605569062666121</v>
+        <v>1.016317380383342</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041172031504375</v>
+        <v>1.027641855197841</v>
       </c>
       <c r="J2">
-        <v>1.007194878048687</v>
+        <v>1.023157837374231</v>
       </c>
       <c r="K2">
-        <v>1.004638318078628</v>
+        <v>1.02343137844637</v>
       </c>
       <c r="L2">
-        <v>1.00472209302762</v>
+        <v>1.022125063242104</v>
       </c>
       <c r="M2">
-        <v>0.972594540377259</v>
+        <v>1.019169911772201</v>
       </c>
       <c r="N2">
-        <v>1.006478824564442</v>
+        <v>1.011820112493132</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9893161310280763</v>
+        <v>1.018911443448249</v>
       </c>
       <c r="D3">
-        <v>0.9971910189610521</v>
+        <v>1.021468284749887</v>
       </c>
       <c r="E3">
-        <v>0.9969693250437665</v>
+        <v>1.020099142501327</v>
       </c>
       <c r="F3">
-        <v>0.968106920823995</v>
+        <v>1.017924006625639</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042359105228994</v>
+        <v>1.027773324297557</v>
       </c>
       <c r="J3">
-        <v>1.010102347922688</v>
+        <v>1.023758696230691</v>
       </c>
       <c r="K3">
-        <v>1.007859967845956</v>
+        <v>1.0241141953398</v>
       </c>
       <c r="L3">
-        <v>1.007641131360675</v>
+        <v>1.022748813804788</v>
       </c>
       <c r="M3">
-        <v>0.9791648264043344</v>
+        <v>1.020579675058588</v>
       </c>
       <c r="N3">
-        <v>1.007443094697755</v>
+        <v>1.012018805161629</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9923295335584172</v>
+        <v>1.019535169988972</v>
       </c>
       <c r="D4">
-        <v>0.9997889080343464</v>
+        <v>1.02203530340856</v>
       </c>
       <c r="E4">
-        <v>0.99937546608576</v>
+        <v>1.02062821644213</v>
       </c>
       <c r="F4">
-        <v>0.9728591500749586</v>
+        <v>1.018962888425043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04308951748518</v>
+        <v>1.027855960205031</v>
       </c>
       <c r="J4">
-        <v>1.011931506879091</v>
+        <v>1.024146341619783</v>
       </c>
       <c r="K4">
-        <v>1.009889881417932</v>
+        <v>1.024555104052296</v>
       </c>
       <c r="L4">
-        <v>1.009481434530386</v>
+        <v>1.023151686628898</v>
       </c>
       <c r="M4">
-        <v>0.9832965677087359</v>
+        <v>1.021490715763239</v>
       </c>
       <c r="N4">
-        <v>1.008049711017726</v>
+        <v>1.012146968577176</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9935789332800083</v>
+        <v>1.019797245339543</v>
       </c>
       <c r="D5">
-        <v>1.000867018449054</v>
+        <v>1.022273608731252</v>
       </c>
       <c r="E5">
-        <v>1.000374500391703</v>
+        <v>1.020850616927766</v>
       </c>
       <c r="F5">
-        <v>0.974826820937468</v>
+        <v>1.019399470051224</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04338777326051</v>
+        <v>1.027890117375177</v>
       </c>
       <c r="J5">
-        <v>1.012688457923932</v>
+        <v>1.024309032487328</v>
       </c>
       <c r="K5">
-        <v>1.010730652761066</v>
+        <v>1.024740242067041</v>
       </c>
       <c r="L5">
-        <v>1.010243920836761</v>
+        <v>1.023320878307281</v>
       </c>
       <c r="M5">
-        <v>0.9850063669334036</v>
+        <v>1.021873442507086</v>
       </c>
       <c r="N5">
-        <v>1.008300734203458</v>
+        <v>1.012200751776611</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9937877112860073</v>
+        <v>1.019841240790148</v>
       </c>
       <c r="D6">
-        <v>1.001047230677992</v>
+        <v>1.022313617178314</v>
       </c>
       <c r="E6">
-        <v>1.000541523534703</v>
+        <v>1.020887957640658</v>
       </c>
       <c r="F6">
-        <v>0.9751554797239611</v>
+        <v>1.019472764578137</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043437341141119</v>
+        <v>1.027895818316864</v>
       </c>
       <c r="J6">
-        <v>1.012814860891104</v>
+        <v>1.02433633286348</v>
       </c>
       <c r="K6">
-        <v>1.010871096571424</v>
+        <v>1.024771314656051</v>
       </c>
       <c r="L6">
-        <v>1.01037130235208</v>
+        <v>1.023349276010882</v>
       </c>
       <c r="M6">
-        <v>0.9852918961264069</v>
+        <v>1.021937688056155</v>
       </c>
       <c r="N6">
-        <v>1.008342651830805</v>
+        <v>1.012209776542498</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9923462956585617</v>
+        <v>1.01953867239936</v>
       </c>
       <c r="D7">
-        <v>0.9998033682333014</v>
+        <v>1.022038487928365</v>
       </c>
       <c r="E7">
-        <v>0.9993888637203833</v>
+        <v>1.020631188255793</v>
       </c>
       <c r="F7">
-        <v>0.9728855585638749</v>
+        <v>1.018968722687749</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043093537132505</v>
+        <v>1.027856418906009</v>
       </c>
       <c r="J7">
-        <v>1.011941667966819</v>
+        <v>1.024148516584504</v>
       </c>
       <c r="K7">
-        <v>1.009901164743384</v>
+        <v>1.024557578739886</v>
       </c>
       <c r="L7">
-        <v>1.009491666272027</v>
+        <v>1.023153948068177</v>
       </c>
       <c r="M7">
-        <v>0.9833195190930719</v>
+        <v>1.021495830849676</v>
       </c>
       <c r="N7">
-        <v>1.008053080720352</v>
+        <v>1.012147687610869</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9861714740572144</v>
+        <v>1.018272802563717</v>
       </c>
       <c r="D8">
-        <v>0.9944835074609223</v>
+        <v>1.020887904297189</v>
       </c>
       <c r="E8">
-        <v>0.9944634182851058</v>
+        <v>1.01955774626946</v>
       </c>
       <c r="F8">
-        <v>0.9631371063162837</v>
+        <v>1.016860498677262</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04158115099875</v>
+        <v>1.027686789405563</v>
       </c>
       <c r="J8">
-        <v>1.008188561207962</v>
+        <v>1.023361138758335</v>
       </c>
       <c r="K8">
-        <v>1.005738725319924</v>
+        <v>1.023662330071729</v>
       </c>
       <c r="L8">
-        <v>1.005718912088359</v>
+        <v>1.022336014973936</v>
       </c>
       <c r="M8">
-        <v>0.9748406973809404</v>
+        <v>1.019646593493263</v>
       </c>
       <c r="N8">
-        <v>1.006808386750187</v>
+        <v>1.011887345283746</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.974673084349998</v>
+        <v>1.016037683233192</v>
       </c>
       <c r="D9">
-        <v>0.9846131861959401</v>
+        <v>1.018858209290455</v>
       </c>
       <c r="E9">
-        <v>0.9853426184927055</v>
+        <v>1.017665506404562</v>
       </c>
       <c r="F9">
-        <v>0.944855028717494</v>
+        <v>1.013139793280231</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038616756660371</v>
+        <v>1.027369260671296</v>
       </c>
       <c r="J9">
-        <v>1.001153032028381</v>
+        <v>1.021964858261938</v>
       </c>
       <c r="K9">
-        <v>0.9979609362757776</v>
+        <v>1.022077738853534</v>
       </c>
       <c r="L9">
-        <v>0.9986780638321991</v>
+        <v>1.020889077026778</v>
       </c>
       <c r="M9">
-        <v>0.9589109925605669</v>
+        <v>1.016378792874103</v>
       </c>
       <c r="N9">
-        <v>1.004474989213501</v>
+        <v>1.011425492933618</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9665371213119108</v>
+        <v>1.014544544778855</v>
       </c>
       <c r="D10">
-        <v>0.9776562706871244</v>
+        <v>1.017503580100079</v>
       </c>
       <c r="E10">
-        <v>0.9789270715010613</v>
+        <v>1.016403548920754</v>
       </c>
       <c r="F10">
-        <v>0.9317927935621866</v>
+        <v>1.010655057955061</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036422882215503</v>
+        <v>1.027145076659251</v>
       </c>
       <c r="J10">
-        <v>0.9961443149215485</v>
+        <v>1.021028058357137</v>
       </c>
       <c r="K10">
-        <v>0.992441017153965</v>
+        <v>1.021016592543038</v>
       </c>
       <c r="L10">
-        <v>0.9936875212391618</v>
+        <v>1.019920656162811</v>
       </c>
       <c r="M10">
-        <v>0.9475133538613209</v>
+        <v>1.014193724203689</v>
       </c>
       <c r="N10">
-        <v>1.002813913511089</v>
+        <v>1.011115506479536</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9628887063301407</v>
+        <v>1.01389726435544</v>
       </c>
       <c r="D11">
-        <v>0.9745436217395267</v>
+        <v>1.016916652275561</v>
       </c>
       <c r="E11">
-        <v>0.9760600088208186</v>
+        <v>1.01585699714181</v>
       </c>
       <c r="F11">
-        <v>0.9258951280251208</v>
+        <v>1.009578038339762</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035417156709242</v>
+        <v>1.027045041800716</v>
       </c>
       <c r="J11">
-        <v>0.9938912184131422</v>
+        <v>1.020620998626921</v>
       </c>
       <c r="K11">
-        <v>0.9899621234122014</v>
+        <v>1.0205559732612</v>
       </c>
       <c r="L11">
-        <v>0.9914479749050401</v>
+        <v>1.019500416424995</v>
       </c>
       <c r="M11">
-        <v>0.9423643089951278</v>
+        <v>1.013245938085777</v>
       </c>
       <c r="N11">
-        <v>1.002066773239509</v>
+        <v>1.010980783290468</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9615133457498835</v>
+        <v>1.013656723213948</v>
       </c>
       <c r="D12">
-        <v>0.973371345230014</v>
+        <v>1.016698586015191</v>
       </c>
       <c r="E12">
-        <v>0.9749807550668665</v>
+        <v>1.015653965931143</v>
       </c>
       <c r="F12">
-        <v>0.9236648212079102</v>
+        <v>1.009177810256777</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035034811281497</v>
+        <v>1.027007439644481</v>
       </c>
       <c r="J12">
-        <v>0.9930408163987644</v>
+        <v>1.020469584781074</v>
       </c>
       <c r="K12">
-        <v>0.9890271301263848</v>
+        <v>1.02038470761593</v>
       </c>
       <c r="L12">
-        <v>0.9906035114205669</v>
+        <v>1.019344184058745</v>
       </c>
       <c r="M12">
-        <v>0.9404167482230251</v>
+        <v>1.012893635433705</v>
       </c>
       <c r="N12">
-        <v>1.001784789219419</v>
+        <v>1.010930666291643</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9618093010279732</v>
+        <v>1.013708325205903</v>
       </c>
       <c r="D13">
-        <v>0.9736235489006462</v>
+        <v>1.016745364469498</v>
       </c>
       <c r="E13">
-        <v>0.9752129214194514</v>
+        <v>1.015697517611389</v>
       </c>
       <c r="F13">
-        <v>0.9241450822429303</v>
+        <v>1.009263668586953</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03511722954077</v>
+        <v>1.027015525557613</v>
       </c>
       <c r="J13">
-        <v>0.9932238559214768</v>
+        <v>1.020502073245632</v>
       </c>
       <c r="K13">
-        <v>0.9892283482460174</v>
+        <v>1.020421452430259</v>
       </c>
       <c r="L13">
-        <v>0.9907852352309922</v>
+        <v>1.01937770261936</v>
       </c>
       <c r="M13">
-        <v>0.9408361390860659</v>
+        <v>1.012969217092065</v>
       </c>
       <c r="N13">
-        <v>1.00184548241265</v>
+        <v>1.01094141994551</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9627754383254967</v>
+        <v>1.01387738344758</v>
       </c>
       <c r="D14">
-        <v>0.9744470558087036</v>
+        <v>1.016898627977426</v>
       </c>
       <c r="E14">
-        <v>0.9759710946807704</v>
+        <v>1.015840214877374</v>
       </c>
       <c r="F14">
-        <v>0.9257115998934832</v>
+        <v>1.009544958978031</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035385733346133</v>
+        <v>1.027041942666494</v>
       </c>
       <c r="J14">
-        <v>0.993821204507028</v>
+        <v>1.020608487074453</v>
       </c>
       <c r="K14">
-        <v>0.989885132175893</v>
+        <v>1.020541819883452</v>
       </c>
       <c r="L14">
-        <v>0.9913784330859862</v>
+        <v>1.019487504997787</v>
       </c>
       <c r="M14">
-        <v>0.9422040542878533</v>
+        <v>1.013216821832638</v>
       </c>
       <c r="N14">
-        <v>1.002043557078147</v>
+        <v>1.010976642130589</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9633679919204816</v>
+        <v>1.013981530890696</v>
       </c>
       <c r="D15">
-        <v>0.9749522793554191</v>
+        <v>1.016993051365578</v>
       </c>
       <c r="E15">
-        <v>0.9764363065724755</v>
+        <v>1.015928133043249</v>
       </c>
       <c r="F15">
-        <v>0.9266714216956349</v>
+        <v>1.009718247840874</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035549992182733</v>
+        <v>1.027058160190618</v>
       </c>
       <c r="J15">
-        <v>0.9941874350210719</v>
+        <v>1.020674023808273</v>
       </c>
       <c r="K15">
-        <v>0.9902878856930667</v>
+        <v>1.020615959552417</v>
       </c>
       <c r="L15">
-        <v>0.991742227837228</v>
+        <v>1.019555139753806</v>
       </c>
       <c r="M15">
-        <v>0.9430421459006655</v>
+        <v>1.013369345598905</v>
       </c>
       <c r="N15">
-        <v>1.002164997371593</v>
+        <v>1.010998333764294</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9667765007075898</v>
+        <v>1.014587486942901</v>
       </c>
       <c r="D16">
-        <v>0.9778606484221064</v>
+        <v>1.01754252485642</v>
       </c>
       <c r="E16">
-        <v>0.9791153960209433</v>
+        <v>1.016439819309902</v>
       </c>
       <c r="F16">
-        <v>0.9321788347366369</v>
+        <v>1.010726512084748</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036488421120096</v>
+        <v>1.027151653261673</v>
       </c>
       <c r="J16">
-        <v>0.996292000064829</v>
+        <v>1.021055043626122</v>
       </c>
       <c r="K16">
-        <v>0.9926035897164882</v>
+        <v>1.021047138355012</v>
       </c>
       <c r="L16">
-        <v>0.9938344310720613</v>
+        <v>1.019948526950331</v>
       </c>
       <c r="M16">
-        <v>0.9478503386564062</v>
+        <v>1.014256590582663</v>
       </c>
       <c r="N16">
-        <v>1.002862888558175</v>
+        <v>1.011124437130864</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9688800775330489</v>
+        <v>1.014967387947245</v>
       </c>
       <c r="D17">
-        <v>0.9796574491148309</v>
+        <v>1.017887097226842</v>
       </c>
       <c r="E17">
-        <v>0.9807714489755929</v>
+        <v>1.016760755476086</v>
       </c>
       <c r="F17">
-        <v>0.9355665595256709</v>
+        <v>1.011358666146598</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037061876030201</v>
+        <v>1.027209506214127</v>
       </c>
       <c r="J17">
-        <v>0.9975890065495163</v>
+        <v>1.021293666972969</v>
       </c>
       <c r="K17">
-        <v>0.9940318127922293</v>
+        <v>1.021317300977791</v>
       </c>
       <c r="L17">
-        <v>0.9951252388416165</v>
+        <v>1.020195045256383</v>
       </c>
       <c r="M17">
-        <v>0.9508072421849844</v>
+        <v>1.014812692908421</v>
       </c>
       <c r="N17">
-        <v>1.003293007568162</v>
+        <v>1.011203405282479</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9700950465165435</v>
+        <v>1.01518890628513</v>
       </c>
       <c r="D18">
-        <v>0.9806958944116443</v>
+        <v>1.018088045323701</v>
       </c>
       <c r="E18">
-        <v>0.981728867290366</v>
+        <v>1.01694794094346</v>
       </c>
       <c r="F18">
-        <v>0.9375194949975507</v>
+        <v>1.011727284074118</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037391011062671</v>
+        <v>1.027242965088218</v>
       </c>
       <c r="J18">
-        <v>0.9983374568496379</v>
+        <v>1.021432715038766</v>
       </c>
       <c r="K18">
-        <v>0.9948563745701325</v>
+        <v>1.021474772697341</v>
       </c>
       <c r="L18">
-        <v>0.9958706177825802</v>
+        <v>1.020338747713599</v>
       </c>
       <c r="M18">
-        <v>0.9525115364864872</v>
+        <v>1.015136900498657</v>
       </c>
       <c r="N18">
-        <v>1.003541218277501</v>
+        <v>1.011249418124738</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9705073201966939</v>
+        <v>1.015264426216426</v>
       </c>
       <c r="D19">
-        <v>0.981048379235516</v>
+        <v>1.018156557483129</v>
       </c>
       <c r="E19">
-        <v>0.9820539017707041</v>
+        <v>1.017011764460053</v>
       </c>
       <c r="F19">
-        <v>0.9381815780641359</v>
+        <v>1.011852955377428</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03750234127596</v>
+        <v>1.02725432522084</v>
       </c>
       <c r="J19">
-        <v>0.9985913140266431</v>
+        <v>1.021480103631622</v>
       </c>
       <c r="K19">
-        <v>0.9951361132391302</v>
+        <v>1.021528447913865</v>
       </c>
       <c r="L19">
-        <v>0.9961235185452232</v>
+        <v>1.020387731706261</v>
       </c>
       <c r="M19">
-        <v>0.9530892748401332</v>
+        <v>1.015247420400686</v>
       </c>
       <c r="N19">
-        <v>1.00362540661784</v>
+        <v>1.011265099186742</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9686556352267253</v>
+        <v>1.014926635566036</v>
       </c>
       <c r="D20">
-        <v>0.9794656693519476</v>
+        <v>1.017850131509405</v>
       </c>
       <c r="E20">
-        <v>0.9805946587162162</v>
+        <v>1.016726323218781</v>
       </c>
       <c r="F20">
-        <v>0.9352054975462305</v>
+        <v>1.011290853105343</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037000906013186</v>
+        <v>1.027203328697213</v>
       </c>
       <c r="J20">
-        <v>0.9974506906968073</v>
+        <v>1.021268079109427</v>
       </c>
       <c r="K20">
-        <v>0.9938794629598712</v>
+        <v>1.021288326421456</v>
       </c>
       <c r="L20">
-        <v>0.9949875314035563</v>
+        <v>1.020168605227917</v>
       </c>
       <c r="M20">
-        <v>0.9504921258392702</v>
+        <v>1.014753044729429</v>
       </c>
       <c r="N20">
-        <v>1.003247137971804</v>
+        <v>1.011194937707215</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9624915032526012</v>
+        <v>1.013827603118836</v>
       </c>
       <c r="D21">
-        <v>0.9742050068531649</v>
+        <v>1.016853497219436</v>
       </c>
       <c r="E21">
-        <v>0.9757482340836851</v>
+        <v>1.015798194574701</v>
       </c>
       <c r="F21">
-        <v>0.9252514230497162</v>
+        <v>1.009462130864243</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035306911268591</v>
+        <v>1.027034175762209</v>
       </c>
       <c r="J21">
-        <v>0.9936456801230096</v>
+        <v>1.020577156758641</v>
       </c>
       <c r="K21">
-        <v>0.989692125888735</v>
+        <v>1.020506379396638</v>
       </c>
       <c r="L21">
-        <v>0.9912041055450092</v>
+        <v>1.019455174708136</v>
       </c>
       <c r="M21">
-        <v>0.9418022275754684</v>
+        <v>1.013143915437807</v>
       </c>
       <c r="N21">
-        <v>1.001985354565138</v>
+        <v>1.010966272141175</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9584983749449609</v>
+        <v>1.013135947163069</v>
       </c>
       <c r="D22">
-        <v>0.970803675412124</v>
+        <v>1.016226554497364</v>
       </c>
       <c r="E22">
-        <v>0.9726178418504648</v>
+        <v>1.015214541668285</v>
       </c>
       <c r="F22">
-        <v>0.9187615133753209</v>
+        <v>1.00831132393323</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034190837245687</v>
+        <v>1.026925249470177</v>
       </c>
       <c r="J22">
-        <v>0.9911747205134528</v>
+        <v>1.020141509562248</v>
       </c>
       <c r="K22">
-        <v>0.9869765864832823</v>
+        <v>1.020013747883694</v>
       </c>
       <c r="L22">
-        <v>0.9887519861881022</v>
+        <v>1.019005822026281</v>
       </c>
       <c r="M22">
-        <v>0.9361344984389038</v>
+        <v>1.012130726634682</v>
       </c>
       <c r="N22">
-        <v>1.001166043154963</v>
+        <v>1.010822068136094</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.960626822929895</v>
+        <v>1.013502669067791</v>
       </c>
       <c r="D23">
-        <v>0.9726160463103273</v>
+        <v>1.016558939084097</v>
       </c>
       <c r="E23">
-        <v>0.9742855436732586</v>
+        <v>1.015523956797832</v>
       </c>
       <c r="F23">
-        <v>0.9222251017195946</v>
+        <v>1.008921487468315</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034787466131455</v>
+        <v>1.026983237196416</v>
       </c>
       <c r="J23">
-        <v>0.9924923768448524</v>
+        <v>1.020372571805722</v>
       </c>
       <c r="K23">
-        <v>0.9884243157153413</v>
+        <v>1.020274995210258</v>
       </c>
       <c r="L23">
-        <v>0.9900591363599697</v>
+        <v>1.019244107440395</v>
       </c>
       <c r="M23">
-        <v>0.9391594591200039</v>
+        <v>1.012667978355892</v>
       </c>
       <c r="N23">
-        <v>1.00160293720713</v>
+        <v>1.010898554488137</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9687570880664229</v>
+        <v>1.014945050033463</v>
       </c>
       <c r="D24">
-        <v>0.9795523559566487</v>
+        <v>1.017866834834261</v>
       </c>
       <c r="E24">
-        <v>0.9806745689157328</v>
+        <v>1.016741881708056</v>
       </c>
       <c r="F24">
-        <v>0.9353687169492092</v>
+        <v>1.011321495227971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037028472247914</v>
+        <v>1.02720612093412</v>
       </c>
       <c r="J24">
-        <v>0.9975132145589115</v>
+        <v>1.021279641586271</v>
       </c>
       <c r="K24">
-        <v>0.9939483294826695</v>
+        <v>1.021301419114558</v>
       </c>
       <c r="L24">
-        <v>0.9950497786713041</v>
+        <v>1.020180552608831</v>
       </c>
       <c r="M24">
-        <v>0.9506345762365281</v>
+        <v>1.01477999765897</v>
       </c>
       <c r="N24">
-        <v>1.003267872700237</v>
+        <v>1.011198763988056</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9777242576638381</v>
+        <v>1.016616051540808</v>
       </c>
       <c r="D25">
-        <v>0.9872278966914169</v>
+        <v>1.019383197764602</v>
       </c>
       <c r="E25">
-        <v>0.9877566103514704</v>
+        <v>1.018154777887316</v>
       </c>
       <c r="F25">
-        <v>0.9497249323654503</v>
+        <v>1.014102406914045</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039420189338511</v>
+        <v>1.027453553812817</v>
       </c>
       <c r="J25">
-        <v>1.003025269292586</v>
+        <v>1.022326877056411</v>
       </c>
       <c r="K25">
-        <v>1.000027772587298</v>
+        <v>1.022488230238871</v>
       </c>
       <c r="L25">
-        <v>1.000548009861359</v>
+        <v>1.02126381360748</v>
       </c>
       <c r="M25">
-        <v>0.9631572916484114</v>
+        <v>1.017224724135029</v>
       </c>
       <c r="N25">
-        <v>1.005095928398711</v>
+        <v>1.011545260041226</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_210/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_210/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.017946612101155</v>
+        <v>0.9845417746292917</v>
       </c>
       <c r="D2">
-        <v>1.020591546546963</v>
+        <v>0.9930817521524774</v>
       </c>
       <c r="E2">
-        <v>1.019281350786939</v>
+        <v>0.9931667318207038</v>
       </c>
       <c r="F2">
-        <v>1.016317380383342</v>
+        <v>0.9605569062666127</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027641855197841</v>
+        <v>1.041172031504375</v>
       </c>
       <c r="J2">
-        <v>1.023157837374231</v>
+        <v>1.007194878048687</v>
       </c>
       <c r="K2">
-        <v>1.02343137844637</v>
+        <v>1.00463831807863</v>
       </c>
       <c r="L2">
-        <v>1.022125063242104</v>
+        <v>1.004722093027621</v>
       </c>
       <c r="M2">
-        <v>1.019169911772201</v>
+        <v>0.9725945403772599</v>
       </c>
       <c r="N2">
-        <v>1.011820112493132</v>
+        <v>1.006478824564442</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018911443448249</v>
+        <v>0.9893161310280756</v>
       </c>
       <c r="D3">
-        <v>1.021468284749887</v>
+        <v>0.9971910189610518</v>
       </c>
       <c r="E3">
-        <v>1.020099142501327</v>
+        <v>0.9969693250437661</v>
       </c>
       <c r="F3">
-        <v>1.017924006625639</v>
+        <v>0.9681069208239944</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027773324297557</v>
+        <v>1.042359105228994</v>
       </c>
       <c r="J3">
-        <v>1.023758696230691</v>
+        <v>1.010102347922688</v>
       </c>
       <c r="K3">
-        <v>1.0241141953398</v>
+        <v>1.007859967845956</v>
       </c>
       <c r="L3">
-        <v>1.022748813804788</v>
+        <v>1.007641131360675</v>
       </c>
       <c r="M3">
-        <v>1.020579675058588</v>
+        <v>0.9791648264043338</v>
       </c>
       <c r="N3">
-        <v>1.012018805161629</v>
+        <v>1.007443094697755</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019535169988972</v>
+        <v>0.9923295335584159</v>
       </c>
       <c r="D4">
-        <v>1.02203530340856</v>
+        <v>0.9997889080343451</v>
       </c>
       <c r="E4">
-        <v>1.02062821644213</v>
+        <v>0.9993754660857584</v>
       </c>
       <c r="F4">
-        <v>1.018962888425043</v>
+        <v>0.972859150074957</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027855960205031</v>
+        <v>1.043089517485179</v>
       </c>
       <c r="J4">
-        <v>1.024146341619783</v>
+        <v>1.01193150687909</v>
       </c>
       <c r="K4">
-        <v>1.024555104052296</v>
+        <v>1.00988988141793</v>
       </c>
       <c r="L4">
-        <v>1.023151686628898</v>
+        <v>1.009481434530384</v>
       </c>
       <c r="M4">
-        <v>1.021490715763239</v>
+        <v>0.9832965677087343</v>
       </c>
       <c r="N4">
-        <v>1.012146968577176</v>
+        <v>1.008049711017726</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019797245339543</v>
+        <v>0.9935789332800082</v>
       </c>
       <c r="D5">
-        <v>1.022273608731252</v>
+        <v>1.000867018449053</v>
       </c>
       <c r="E5">
-        <v>1.020850616927766</v>
+        <v>1.000374500391703</v>
       </c>
       <c r="F5">
-        <v>1.019399470051224</v>
+        <v>0.9748268209374675</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027890117375177</v>
+        <v>1.04338777326051</v>
       </c>
       <c r="J5">
-        <v>1.024309032487328</v>
+        <v>1.012688457923932</v>
       </c>
       <c r="K5">
-        <v>1.024740242067041</v>
+        <v>1.010730652761066</v>
       </c>
       <c r="L5">
-        <v>1.023320878307281</v>
+        <v>1.010243920836761</v>
       </c>
       <c r="M5">
-        <v>1.021873442507086</v>
+        <v>0.9850063669334033</v>
       </c>
       <c r="N5">
-        <v>1.012200751776611</v>
+        <v>1.008300734203458</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019841240790148</v>
+        <v>0.9937877112860071</v>
       </c>
       <c r="D6">
-        <v>1.022313617178314</v>
+        <v>1.001047230677991</v>
       </c>
       <c r="E6">
-        <v>1.020887957640658</v>
+        <v>1.000541523534702</v>
       </c>
       <c r="F6">
-        <v>1.019472764578137</v>
+        <v>0.9751554797239603</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027895818316864</v>
+        <v>1.043437341141119</v>
       </c>
       <c r="J6">
-        <v>1.02433633286348</v>
+        <v>1.012814860891104</v>
       </c>
       <c r="K6">
-        <v>1.024771314656051</v>
+        <v>1.010871096571424</v>
       </c>
       <c r="L6">
-        <v>1.023349276010882</v>
+        <v>1.010371302352079</v>
       </c>
       <c r="M6">
-        <v>1.021937688056155</v>
+        <v>0.9852918961264059</v>
       </c>
       <c r="N6">
-        <v>1.012209776542498</v>
+        <v>1.008342651830805</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01953867239936</v>
+        <v>0.9923462956585611</v>
       </c>
       <c r="D7">
-        <v>1.022038487928365</v>
+        <v>0.9998033682333006</v>
       </c>
       <c r="E7">
-        <v>1.020631188255793</v>
+        <v>0.9993888637203826</v>
       </c>
       <c r="F7">
-        <v>1.018968722687749</v>
+        <v>0.9728855585638738</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027856418906009</v>
+        <v>1.043093537132505</v>
       </c>
       <c r="J7">
-        <v>1.024148516584504</v>
+        <v>1.011941667966818</v>
       </c>
       <c r="K7">
-        <v>1.024557578739886</v>
+        <v>1.009901164743384</v>
       </c>
       <c r="L7">
-        <v>1.023153948068177</v>
+        <v>1.009491666272026</v>
       </c>
       <c r="M7">
-        <v>1.021495830849676</v>
+        <v>0.9833195190930709</v>
       </c>
       <c r="N7">
-        <v>1.012147687610869</v>
+        <v>1.008053080720351</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018272802563717</v>
+        <v>0.9861714740572142</v>
       </c>
       <c r="D8">
-        <v>1.020887904297189</v>
+        <v>0.9944835074609222</v>
       </c>
       <c r="E8">
-        <v>1.01955774626946</v>
+        <v>0.9944634182851053</v>
       </c>
       <c r="F8">
-        <v>1.016860498677262</v>
+        <v>0.9631371063162835</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027686789405563</v>
+        <v>1.04158115099875</v>
       </c>
       <c r="J8">
-        <v>1.023361138758335</v>
+        <v>1.008188561207961</v>
       </c>
       <c r="K8">
-        <v>1.023662330071729</v>
+        <v>1.005738725319924</v>
       </c>
       <c r="L8">
-        <v>1.022336014973936</v>
+        <v>1.005718912088358</v>
       </c>
       <c r="M8">
-        <v>1.019646593493263</v>
+        <v>0.9748406973809403</v>
       </c>
       <c r="N8">
-        <v>1.011887345283746</v>
+        <v>1.006808386750187</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016037683233192</v>
+        <v>0.9746730843499986</v>
       </c>
       <c r="D9">
-        <v>1.018858209290455</v>
+        <v>0.9846131861959405</v>
       </c>
       <c r="E9">
-        <v>1.017665506404562</v>
+        <v>0.9853426184927057</v>
       </c>
       <c r="F9">
-        <v>1.013139793280231</v>
+        <v>0.9448550287174945</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027369260671296</v>
+        <v>1.038616756660371</v>
       </c>
       <c r="J9">
-        <v>1.021964858261938</v>
+        <v>1.001153032028381</v>
       </c>
       <c r="K9">
-        <v>1.022077738853534</v>
+        <v>0.9979609362757781</v>
       </c>
       <c r="L9">
-        <v>1.020889077026778</v>
+        <v>0.9986780638321994</v>
       </c>
       <c r="M9">
-        <v>1.016378792874103</v>
+        <v>0.9589109925605671</v>
       </c>
       <c r="N9">
-        <v>1.011425492933618</v>
+        <v>1.004474989213501</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014544544778855</v>
+        <v>0.9665371213119111</v>
       </c>
       <c r="D10">
-        <v>1.017503580100079</v>
+        <v>0.9776562706871249</v>
       </c>
       <c r="E10">
-        <v>1.016403548920754</v>
+        <v>0.9789270715010617</v>
       </c>
       <c r="F10">
-        <v>1.010655057955061</v>
+        <v>0.9317927935621869</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027145076659251</v>
+        <v>1.036422882215503</v>
       </c>
       <c r="J10">
-        <v>1.021028058357137</v>
+        <v>0.9961443149215489</v>
       </c>
       <c r="K10">
-        <v>1.021016592543038</v>
+        <v>0.9924410171539658</v>
       </c>
       <c r="L10">
-        <v>1.019920656162811</v>
+        <v>0.9936875212391623</v>
       </c>
       <c r="M10">
-        <v>1.014193724203689</v>
+        <v>0.9475133538613212</v>
       </c>
       <c r="N10">
-        <v>1.011115506479536</v>
+        <v>1.002813913511089</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01389726435544</v>
+        <v>0.9628887063301408</v>
       </c>
       <c r="D11">
-        <v>1.016916652275561</v>
+        <v>0.9745436217395271</v>
       </c>
       <c r="E11">
-        <v>1.01585699714181</v>
+        <v>0.9760600088208189</v>
       </c>
       <c r="F11">
-        <v>1.009578038339762</v>
+        <v>0.9258951280251213</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027045041800716</v>
+        <v>1.035417156709242</v>
       </c>
       <c r="J11">
-        <v>1.020620998626921</v>
+        <v>0.9938912184131425</v>
       </c>
       <c r="K11">
-        <v>1.0205559732612</v>
+        <v>0.9899621234122018</v>
       </c>
       <c r="L11">
-        <v>1.019500416424995</v>
+        <v>0.9914479749050404</v>
       </c>
       <c r="M11">
-        <v>1.013245938085777</v>
+        <v>0.9423643089951284</v>
       </c>
       <c r="N11">
-        <v>1.010980783290468</v>
+        <v>1.002066773239509</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013656723213948</v>
+        <v>0.9615133457498835</v>
       </c>
       <c r="D12">
-        <v>1.016698586015191</v>
+        <v>0.9733713452300142</v>
       </c>
       <c r="E12">
-        <v>1.015653965931143</v>
+        <v>0.9749807550668667</v>
       </c>
       <c r="F12">
-        <v>1.009177810256777</v>
+        <v>0.92366482120791</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027007439644481</v>
+        <v>1.035034811281497</v>
       </c>
       <c r="J12">
-        <v>1.020469584781074</v>
+        <v>0.9930408163987644</v>
       </c>
       <c r="K12">
-        <v>1.02038470761593</v>
+        <v>0.989027130126385</v>
       </c>
       <c r="L12">
-        <v>1.019344184058745</v>
+        <v>0.9906035114205669</v>
       </c>
       <c r="M12">
-        <v>1.012893635433705</v>
+        <v>0.9404167482230249</v>
       </c>
       <c r="N12">
-        <v>1.010930666291643</v>
+        <v>1.001784789219419</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013708325205903</v>
+        <v>0.9618093010279734</v>
       </c>
       <c r="D13">
-        <v>1.016745364469498</v>
+        <v>0.9736235489006466</v>
       </c>
       <c r="E13">
-        <v>1.015697517611389</v>
+        <v>0.9752129214194517</v>
       </c>
       <c r="F13">
-        <v>1.009263668586953</v>
+        <v>0.9241450822429301</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027015525557613</v>
+        <v>1.03511722954077</v>
       </c>
       <c r="J13">
-        <v>1.020502073245632</v>
+        <v>0.9932238559214768</v>
       </c>
       <c r="K13">
-        <v>1.020421452430259</v>
+        <v>0.9892283482460178</v>
       </c>
       <c r="L13">
-        <v>1.01937770261936</v>
+        <v>0.9907852352309925</v>
       </c>
       <c r="M13">
-        <v>1.012969217092065</v>
+        <v>0.9408361390860656</v>
       </c>
       <c r="N13">
-        <v>1.01094141994551</v>
+        <v>1.00184548241265</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01387738344758</v>
+        <v>0.9627754383254958</v>
       </c>
       <c r="D14">
-        <v>1.016898627977426</v>
+        <v>0.9744470558087025</v>
       </c>
       <c r="E14">
-        <v>1.015840214877374</v>
+        <v>0.9759710946807695</v>
       </c>
       <c r="F14">
-        <v>1.009544958978031</v>
+        <v>0.9257115998934818</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027041942666494</v>
+        <v>1.035385733346132</v>
       </c>
       <c r="J14">
-        <v>1.020608487074453</v>
+        <v>0.993821204507027</v>
       </c>
       <c r="K14">
-        <v>1.020541819883452</v>
+        <v>0.9898851321758921</v>
       </c>
       <c r="L14">
-        <v>1.019487504997787</v>
+        <v>0.9913784330859853</v>
       </c>
       <c r="M14">
-        <v>1.013216821832638</v>
+        <v>0.942204054287852</v>
       </c>
       <c r="N14">
-        <v>1.010976642130589</v>
+        <v>1.002043557078147</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013981530890696</v>
+        <v>0.9633679919204821</v>
       </c>
       <c r="D15">
-        <v>1.016993051365578</v>
+        <v>0.9749522793554196</v>
       </c>
       <c r="E15">
-        <v>1.015928133043249</v>
+        <v>0.9764363065724759</v>
       </c>
       <c r="F15">
-        <v>1.009718247840874</v>
+        <v>0.9266714216956355</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027058160190618</v>
+        <v>1.035549992182733</v>
       </c>
       <c r="J15">
-        <v>1.020674023808273</v>
+        <v>0.9941874350210725</v>
       </c>
       <c r="K15">
-        <v>1.020615959552417</v>
+        <v>0.9902878856930672</v>
       </c>
       <c r="L15">
-        <v>1.019555139753806</v>
+        <v>0.9917422278372284</v>
       </c>
       <c r="M15">
-        <v>1.013369345598905</v>
+        <v>0.9430421459006662</v>
       </c>
       <c r="N15">
-        <v>1.010998333764294</v>
+        <v>1.002164997371594</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014587486942901</v>
+        <v>0.9667765007075894</v>
       </c>
       <c r="D16">
-        <v>1.01754252485642</v>
+        <v>0.9778606484221058</v>
       </c>
       <c r="E16">
-        <v>1.016439819309902</v>
+        <v>0.9791153960209426</v>
       </c>
       <c r="F16">
-        <v>1.010726512084748</v>
+        <v>0.9321788347366369</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027151653261673</v>
+        <v>1.036488421120096</v>
       </c>
       <c r="J16">
-        <v>1.021055043626122</v>
+        <v>0.9962920000648285</v>
       </c>
       <c r="K16">
-        <v>1.021047138355012</v>
+        <v>0.9926035897164878</v>
       </c>
       <c r="L16">
-        <v>1.019948526950331</v>
+        <v>0.9938344310720605</v>
       </c>
       <c r="M16">
-        <v>1.014256590582663</v>
+        <v>0.9478503386564062</v>
       </c>
       <c r="N16">
-        <v>1.011124437130864</v>
+        <v>1.002862888558175</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014967387947245</v>
+        <v>0.9688800775330489</v>
       </c>
       <c r="D17">
-        <v>1.017887097226842</v>
+        <v>0.9796574491148309</v>
       </c>
       <c r="E17">
-        <v>1.016760755476086</v>
+        <v>0.9807714489755928</v>
       </c>
       <c r="F17">
-        <v>1.011358666146598</v>
+        <v>0.9355665595256702</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027209506214127</v>
+        <v>1.037061876030201</v>
       </c>
       <c r="J17">
-        <v>1.021293666972969</v>
+        <v>0.9975890065495162</v>
       </c>
       <c r="K17">
-        <v>1.021317300977791</v>
+        <v>0.9940318127922292</v>
       </c>
       <c r="L17">
-        <v>1.020195045256383</v>
+        <v>0.9951252388416163</v>
       </c>
       <c r="M17">
-        <v>1.014812692908421</v>
+        <v>0.9508072421849835</v>
       </c>
       <c r="N17">
-        <v>1.011203405282479</v>
+        <v>1.003293007568162</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01518890628513</v>
+        <v>0.9700950465165443</v>
       </c>
       <c r="D18">
-        <v>1.018088045323701</v>
+        <v>0.9806958944116452</v>
       </c>
       <c r="E18">
-        <v>1.01694794094346</v>
+        <v>0.9817288672903667</v>
       </c>
       <c r="F18">
-        <v>1.011727284074118</v>
+        <v>0.9375194949975506</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027242965088218</v>
+        <v>1.037391011062671</v>
       </c>
       <c r="J18">
-        <v>1.021432715038766</v>
+        <v>0.9983374568496386</v>
       </c>
       <c r="K18">
-        <v>1.021474772697341</v>
+        <v>0.9948563745701334</v>
       </c>
       <c r="L18">
-        <v>1.020338747713599</v>
+        <v>0.9958706177825808</v>
       </c>
       <c r="M18">
-        <v>1.015136900498657</v>
+        <v>0.9525115364864873</v>
       </c>
       <c r="N18">
-        <v>1.011249418124738</v>
+        <v>1.003541218277501</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015264426216426</v>
+        <v>0.9705073201966933</v>
       </c>
       <c r="D19">
-        <v>1.018156557483129</v>
+        <v>0.9810483792355154</v>
       </c>
       <c r="E19">
-        <v>1.017011764460053</v>
+        <v>0.9820539017707031</v>
       </c>
       <c r="F19">
-        <v>1.011852955377428</v>
+        <v>0.9381815780641349</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02725432522084</v>
+        <v>1.03750234127596</v>
       </c>
       <c r="J19">
-        <v>1.021480103631622</v>
+        <v>0.9985913140266425</v>
       </c>
       <c r="K19">
-        <v>1.021528447913865</v>
+        <v>0.9951361132391293</v>
       </c>
       <c r="L19">
-        <v>1.020387731706261</v>
+        <v>0.9961235185452222</v>
       </c>
       <c r="M19">
-        <v>1.015247420400686</v>
+        <v>0.9530892748401325</v>
       </c>
       <c r="N19">
-        <v>1.011265099186742</v>
+        <v>1.00362540661784</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014926635566036</v>
+        <v>0.9686556352267252</v>
       </c>
       <c r="D20">
-        <v>1.017850131509405</v>
+        <v>0.9794656693519476</v>
       </c>
       <c r="E20">
-        <v>1.016726323218781</v>
+        <v>0.9805946587162159</v>
       </c>
       <c r="F20">
-        <v>1.011290853105343</v>
+        <v>0.9352054975462304</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027203328697213</v>
+        <v>1.037000906013186</v>
       </c>
       <c r="J20">
-        <v>1.021268079109427</v>
+        <v>0.997450690696807</v>
       </c>
       <c r="K20">
-        <v>1.021288326421456</v>
+        <v>0.9938794629598711</v>
       </c>
       <c r="L20">
-        <v>1.020168605227917</v>
+        <v>0.9949875314035559</v>
       </c>
       <c r="M20">
-        <v>1.014753044729429</v>
+        <v>0.9504921258392701</v>
       </c>
       <c r="N20">
-        <v>1.011194937707215</v>
+        <v>1.003247137971804</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013827603118836</v>
+        <v>0.9624915032526002</v>
       </c>
       <c r="D21">
-        <v>1.016853497219436</v>
+        <v>0.9742050068531642</v>
       </c>
       <c r="E21">
-        <v>1.015798194574701</v>
+        <v>0.9757482340836839</v>
       </c>
       <c r="F21">
-        <v>1.009462130864243</v>
+        <v>0.925251423049716</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027034175762209</v>
+        <v>1.03530691126859</v>
       </c>
       <c r="J21">
-        <v>1.020577156758641</v>
+        <v>0.9936456801230088</v>
       </c>
       <c r="K21">
-        <v>1.020506379396638</v>
+        <v>0.9896921258887343</v>
       </c>
       <c r="L21">
-        <v>1.019455174708136</v>
+        <v>0.9912041055450084</v>
       </c>
       <c r="M21">
-        <v>1.013143915437807</v>
+        <v>0.9418022275754682</v>
       </c>
       <c r="N21">
-        <v>1.010966272141175</v>
+        <v>1.001985354565138</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013135947163069</v>
+        <v>0.9584983749449608</v>
       </c>
       <c r="D22">
-        <v>1.016226554497364</v>
+        <v>0.9708036754121239</v>
       </c>
       <c r="E22">
-        <v>1.015214541668285</v>
+        <v>0.9726178418504647</v>
       </c>
       <c r="F22">
-        <v>1.00831132393323</v>
+        <v>0.9187615133753205</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026925249470177</v>
+        <v>1.034190837245687</v>
       </c>
       <c r="J22">
-        <v>1.020141509562248</v>
+        <v>0.9911747205134527</v>
       </c>
       <c r="K22">
-        <v>1.020013747883694</v>
+        <v>0.9869765864832821</v>
       </c>
       <c r="L22">
-        <v>1.019005822026281</v>
+        <v>0.9887519861881021</v>
       </c>
       <c r="M22">
-        <v>1.012130726634682</v>
+        <v>0.9361344984389035</v>
       </c>
       <c r="N22">
-        <v>1.010822068136094</v>
+        <v>1.001166043154963</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013502669067791</v>
+        <v>0.9606268229298951</v>
       </c>
       <c r="D23">
-        <v>1.016558939084097</v>
+        <v>0.9726160463103276</v>
       </c>
       <c r="E23">
-        <v>1.015523956797832</v>
+        <v>0.9742855436732588</v>
       </c>
       <c r="F23">
-        <v>1.008921487468315</v>
+        <v>0.922225101719595</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026983237196416</v>
+        <v>1.034787466131455</v>
       </c>
       <c r="J23">
-        <v>1.020372571805722</v>
+        <v>0.9924923768448526</v>
       </c>
       <c r="K23">
-        <v>1.020274995210258</v>
+        <v>0.9884243157153417</v>
       </c>
       <c r="L23">
-        <v>1.019244107440395</v>
+        <v>0.9900591363599699</v>
       </c>
       <c r="M23">
-        <v>1.012667978355892</v>
+        <v>0.9391594591200044</v>
       </c>
       <c r="N23">
-        <v>1.010898554488137</v>
+        <v>1.00160293720713</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014945050033463</v>
+        <v>0.9687570880664226</v>
       </c>
       <c r="D24">
-        <v>1.017866834834261</v>
+        <v>0.979552355956648</v>
       </c>
       <c r="E24">
-        <v>1.016741881708056</v>
+        <v>0.9806745689157322</v>
       </c>
       <c r="F24">
-        <v>1.011321495227971</v>
+        <v>0.9353687169492099</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02720612093412</v>
+        <v>1.037028472247914</v>
       </c>
       <c r="J24">
-        <v>1.021279641586271</v>
+        <v>0.9975132145589111</v>
       </c>
       <c r="K24">
-        <v>1.021301419114558</v>
+        <v>0.993948329482669</v>
       </c>
       <c r="L24">
-        <v>1.020180552608831</v>
+        <v>0.9950497786713035</v>
       </c>
       <c r="M24">
-        <v>1.01477999765897</v>
+        <v>0.9506345762365288</v>
       </c>
       <c r="N24">
-        <v>1.011198763988056</v>
+        <v>1.003267872700237</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016616051540808</v>
+        <v>0.9777242576638383</v>
       </c>
       <c r="D25">
-        <v>1.019383197764602</v>
+        <v>0.9872278966914171</v>
       </c>
       <c r="E25">
-        <v>1.018154777887316</v>
+        <v>0.9877566103514708</v>
       </c>
       <c r="F25">
-        <v>1.014102406914045</v>
+        <v>0.9497249323654507</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027453553812817</v>
+        <v>1.039420189338511</v>
       </c>
       <c r="J25">
-        <v>1.022326877056411</v>
+        <v>1.003025269292586</v>
       </c>
       <c r="K25">
-        <v>1.022488230238871</v>
+        <v>1.000027772587299</v>
       </c>
       <c r="L25">
-        <v>1.02126381360748</v>
+        <v>1.000548009861359</v>
       </c>
       <c r="M25">
-        <v>1.017224724135029</v>
+        <v>0.9631572916484117</v>
       </c>
       <c r="N25">
-        <v>1.011545260041226</v>
+        <v>1.005095928398711</v>
       </c>
     </row>
   </sheetData>
